--- a/edges.xlsx
+++ b/edges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/varaunight/Desktop/Tunnel Mapper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6C19E4-5838-D043-9EAC-A7B10FBB9E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F587B00C-064F-7E4C-9282-03A85F9B0724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="-6340" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
   <si>
     <t>First</t>
   </si>
@@ -97,20 +97,179 @@
     <t>ML</t>
   </si>
   <si>
-    <t>PAC</t>
-  </si>
-  <si>
     <t>SLC</t>
   </si>
   <si>
     <t>TC</t>
+  </si>
+  <si>
+    <t>Route A</t>
+  </si>
+  <si>
+    <t>Route B</t>
+  </si>
+  <si>
+    <t>Overpass to DC on 3rd and 4th floors of MC</t>
+  </si>
+  <si>
+    <t>Overpass to M3 on the 4th floor of MC</t>
+  </si>
+  <si>
+    <t>Overpass to QNC on the 3rd floor of MC</t>
+  </si>
+  <si>
+    <t>Overpass to SLC on the 3rd floor of MC</t>
+  </si>
+  <si>
+    <t>Overpass to B2 on the 2nd floor of QNC</t>
+  </si>
+  <si>
+    <t>Overpass to MC on the 2nd floor of QNC</t>
+  </si>
+  <si>
+    <t>Overpass to E3 on the 1st floor of DC</t>
+  </si>
+  <si>
+    <t>Overpass to C2 on the 2nd floor of DC</t>
+  </si>
+  <si>
+    <t>Overpass to MC on the 2nd floor of DC</t>
+  </si>
+  <si>
+    <t>Overpass to M3 on the 3rd floor of DC</t>
+  </si>
+  <si>
+    <t>Internal connection to E3 on 2nd floor of E2</t>
+  </si>
+  <si>
+    <t>Corridor to DWE on 2nd floor of E2</t>
+  </si>
+  <si>
+    <t>Corridor to Physics on the 3rd loor of E2</t>
+  </si>
+  <si>
+    <t>Elevator 2 to RCH on main floor of E2</t>
+  </si>
+  <si>
+    <t>Entrance to E2 at the South of 2nd floor of E3</t>
+  </si>
+  <si>
+    <t>Internal connection to DC on 1st floor of E3 or through a Corridor on 2nd floor of E3</t>
+  </si>
+  <si>
+    <t>Elevator to E5 on the 3rd floor of E3 (head to level 3)</t>
+  </si>
+  <si>
+    <t>Overpass to E3 on the 5th floor of E5</t>
+  </si>
+  <si>
+    <t>Room 1501 of RCH connected to DWE</t>
+  </si>
+  <si>
+    <t>Elevator to E2 on the 2nd floor of RCH</t>
+  </si>
+  <si>
+    <t>Room 1501 of DWE connected to RCH</t>
+  </si>
+  <si>
+    <t>Overpass to E2 on the 3rd floor of DWE</t>
+  </si>
+  <si>
+    <t>Internal connection to DC on the 3rd floor of C2</t>
+  </si>
+  <si>
+    <t>Internal connection to C1 on 2nd and 3rd floors of C2</t>
+  </si>
+  <si>
+    <t>Internal connection to ESC on 2nd and 3rd floors of C2</t>
+  </si>
+  <si>
+    <t>Corridor to B2 on the 1st and 2nd floors of B1</t>
+  </si>
+  <si>
+    <t>Corridor to ESC on the 2nd floor of B1</t>
+  </si>
+  <si>
+    <t>Overpass to B1 on the 2nd floor of B2, as well as a corridor on the 1st floor</t>
+  </si>
+  <si>
+    <t>Overpass to QNC on the 2nd floor of B2</t>
+  </si>
+  <si>
+    <t>Corridor to B1 on the 2nd floor of ESC</t>
+  </si>
+  <si>
+    <t>Overpass to C2 on the 2nd and 3rd floors of ESC</t>
+  </si>
+  <si>
+    <t>Internal connection to C2 from C1</t>
+  </si>
+  <si>
+    <t>Overpass to MC on the 3rd floor of M3</t>
+  </si>
+  <si>
+    <t>Overpass ot DC from M3</t>
+  </si>
+  <si>
+    <t>Link to EV2 on the 1st and 2nd floors of EV1</t>
+  </si>
+  <si>
+    <t>Tunnel with internal connection to ML near Room 109 of EV1</t>
+  </si>
+  <si>
+    <t>Tunnel with internal connection to AL near Room 109 of EV1</t>
+  </si>
+  <si>
+    <t>Tunnel with internal connection to TC near Room 109 of EV1</t>
+  </si>
+  <si>
+    <t>Link to EV1 on 1st and 2nd floors of EV2</t>
+  </si>
+  <si>
+    <t>Connection from EV2 to EV3 (not certain if this is an internal connection)</t>
+  </si>
+  <si>
+    <t>Connection from EV3 to EV2 (not certain if this is an internal connection)</t>
+  </si>
+  <si>
+    <t>Link to EV2 on the 2nd floor of PAS</t>
+  </si>
+  <si>
+    <t>Link to PAS from EV2</t>
+  </si>
+  <si>
+    <t>Link to E2 on the 3rd floor of Physics</t>
+  </si>
+  <si>
+    <t>Tunnel to EV1 in the basement of AL</t>
+  </si>
+  <si>
+    <t>Internal tunnel connection to EV1 from TC</t>
+  </si>
+  <si>
+    <t>Internal tunnel connection to EV1 from ML</t>
+  </si>
+  <si>
+    <t>Tunnel to AL in the basement of SCH</t>
+  </si>
+  <si>
+    <t>Overpass to HH from SCH</t>
+  </si>
+  <si>
+    <t>Overpass to SCH from HH</t>
+  </si>
+  <si>
+    <t>Tunnel from AL to SCH</t>
+  </si>
+  <si>
+    <t>Overpass to MC on the 2nd floor of SLC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +282,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,9 +327,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -467,244 +640,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
         <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/edges.xlsx
+++ b/edges.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/varaunight/Desktop/Tunnel Mapper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/varaunight/Desktop/TunnelMapper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F587B00C-064F-7E4C-9282-03A85F9B0724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949F0A1C-71DE-974F-AA3A-C1592765DBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="-6340" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>First</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>Overpass to MC on the 2nd floor of SLC</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>Internal connection</t>
   </si>
 </sst>
 </file>
@@ -640,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1030,6 +1036,20 @@
         <v>78</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
